--- a/result/27_pred.xlsx
+++ b/result/27_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,298 +447,346 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>545982.9013</v>
+        <v>545975</v>
       </c>
       <c r="B2" t="n">
-        <v>387799.1</v>
+        <v>387853.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>545973.8909999999</v>
+        <v>546034.9029</v>
       </c>
       <c r="B3" t="n">
-        <v>387779</v>
+        <v>387853.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>545973.8909999999</v>
+        <v>546034.9029</v>
       </c>
       <c r="B4" t="n">
-        <v>387814</v>
+        <v>387821.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>545973.8909999999</v>
+        <v>545975</v>
       </c>
       <c r="B5" t="n">
-        <v>387829</v>
+        <v>387821.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>545973.8909999999</v>
+        <v>545982.9013</v>
       </c>
       <c r="B6" t="n">
-        <v>387844</v>
+        <v>387805.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>545996.7828727273</v>
+        <v>546038.9013</v>
       </c>
       <c r="B7" t="n">
-        <v>387853.1</v>
+        <v>387805.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>545988.8909999999</v>
+        <v>546038.9013</v>
       </c>
       <c r="B8" t="n">
-        <v>387784</v>
+        <v>387787.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>545988.8909999999</v>
+        <v>545982.9013</v>
       </c>
       <c r="B9" t="n">
-        <v>387814</v>
+        <v>387787.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>545988.8909999999</v>
+        <v>546048.9013</v>
       </c>
       <c r="B10" t="n">
-        <v>387829</v>
+        <v>387853.1097</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>545998.8909999999</v>
+        <v>546065.0013</v>
       </c>
       <c r="B11" t="n">
-        <v>387799</v>
+        <v>387853.1097</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>546002.228590909</v>
+        <v>546065.0013</v>
       </c>
       <c r="B12" t="n">
-        <v>387821.1</v>
+        <v>387797</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>546003.8909999999</v>
+        <v>546048.9013</v>
       </c>
       <c r="B13" t="n">
-        <v>387784</v>
+        <v>387797</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>546003.8909999999</v>
+        <v>546004.9514500001</v>
       </c>
       <c r="B14" t="n">
-        <v>387839</v>
+        <v>387853.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>546013.1200272727</v>
+        <v>546034.9029</v>
       </c>
       <c r="B15" t="n">
-        <v>387853.1</v>
+        <v>387837.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>546013.4467545454</v>
+        <v>546004.9514500001</v>
       </c>
       <c r="B16" t="n">
-        <v>387805.1</v>
+        <v>387821.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>546018.8909999999</v>
+        <v>545975</v>
       </c>
       <c r="B17" t="n">
-        <v>387784</v>
+        <v>387837.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>546018.8909999999</v>
+        <v>546010.9013</v>
       </c>
       <c r="B18" t="n">
-        <v>387824</v>
+        <v>387805.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>546018.8909999999</v>
+        <v>546010.9013</v>
       </c>
       <c r="B19" t="n">
-        <v>387839</v>
+        <v>387787.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>546028.7194818183</v>
+        <v>546065.0013</v>
       </c>
       <c r="B20" t="n">
-        <v>387805.1</v>
+        <v>387825.05485</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>546028.8909999999</v>
+        <v>546084.922784545</v>
       </c>
       <c r="B21" t="n">
-        <v>387854</v>
+        <v>387771.6848259218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>546033.8103909091</v>
+        <v>546069.9228221284</v>
       </c>
       <c r="B22" t="n">
-        <v>387787.1</v>
+        <v>387771.651247629</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>546033.8909999999</v>
+        <v>546084.771682227</v>
       </c>
       <c r="B23" t="n">
-        <v>387824</v>
+        <v>387839.1846567964</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>546033.8909999999</v>
+        <v>545964.9230852125</v>
       </c>
       <c r="B24" t="n">
-        <v>387839</v>
+        <v>387771.4161995788</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>546063.8909999999</v>
+        <v>546084.8388388128</v>
       </c>
       <c r="B25" t="n">
-        <v>387839</v>
+        <v>387809.1847319633</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>546068.8909999999</v>
+        <v>546084.8892062521</v>
       </c>
       <c r="B26" t="n">
-        <v>387854</v>
+        <v>387786.6847883384</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>546063.8909999999</v>
+        <v>546054.9228597118</v>
       </c>
       <c r="B27" t="n">
-        <v>387824</v>
+        <v>387771.6176693361</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>546048.9013</v>
+        <v>546084.7213147876</v>
       </c>
       <c r="B28" t="n">
-        <v>387842.9079363636</v>
+        <v>387861.6846004212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>546048.8909999999</v>
+        <v>546024.9229348786</v>
       </c>
       <c r="B29" t="n">
-        <v>387779</v>
+        <v>387771.5505127503</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>546043.8909999999</v>
+        <v>546084.8052605198</v>
       </c>
       <c r="B30" t="n">
-        <v>387809</v>
+        <v>387824.1846943798</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>546073.8909999999</v>
+        <v>545994.9230100457</v>
       </c>
       <c r="B31" t="n">
-        <v>387779</v>
+        <v>387771.4833561645</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>546083.8909999999</v>
+        <v>545964.8727177731</v>
       </c>
       <c r="B32" t="n">
-        <v>387864</v>
+        <v>387793.9161432036</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>546078.8909999999</v>
+        <v>546017.2718513524</v>
       </c>
       <c r="B33" t="n">
-        <v>387824</v>
+        <v>387839.0335544784</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>546078.8909999999</v>
+        <v>545994.7719077276</v>
       </c>
       <c r="B34" t="n">
-        <v>387794</v>
+        <v>387838.983187039</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>546078.8909999999</v>
+        <v>545979.923047629</v>
       </c>
       <c r="B35" t="n">
-        <v>387809</v>
+        <v>387771.4497778717</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>546078.8909999999</v>
+        <v>545964.8391394803</v>
       </c>
       <c r="B36" t="n">
-        <v>387839</v>
+        <v>387808.9161056202</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>546048.8909999999</v>
+        <v>546009.9229724621</v>
       </c>
       <c r="B37" t="n">
-        <v>387864</v>
+        <v>387771.5169344575</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>545978.8909999999</v>
+        <v>546024.8725674395</v>
       </c>
       <c r="B38" t="n">
-        <v>387864</v>
+        <v>387794.0504563752</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>546039.9228972953</v>
+      </c>
+      <c r="B39" t="n">
+        <v>387771.5840910432</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>546054.7717573938</v>
+      </c>
+      <c r="B40" t="n">
+        <v>387839.1175002106</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>546017.2214839131</v>
+      </c>
+      <c r="B41" t="n">
+        <v>387861.5334981033</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>545987.2215590801</v>
+      </c>
+      <c r="B42" t="n">
+        <v>387861.4663415175</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>546069.7717198103</v>
+      </c>
+      <c r="B43" t="n">
+        <v>387839.1510785035</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>546024.8389891465</v>
+      </c>
+      <c r="B44" t="n">
+        <v>387809.0504187917</v>
       </c>
     </row>
   </sheetData>

--- a/result/27_pred.xlsx
+++ b/result/27_pred.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,194 +599,34 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>546084.922784545</v>
+        <v>546048.7952772323</v>
       </c>
       <c r="B21" t="n">
-        <v>387771.6848259218</v>
+        <v>387828.6040952019</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>546069.9228221284</v>
+        <v>546024.8759252687</v>
       </c>
       <c r="B22" t="n">
-        <v>387771.651247629</v>
+        <v>387792.5504601335</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>546084.771682227</v>
+        <v>546012.7685047982</v>
       </c>
       <c r="B23" t="n">
-        <v>387839.1846567964</v>
+        <v>387840.5234772322</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>545964.9230852125</v>
+        <v>546072.7683544644</v>
       </c>
       <c r="B24" t="n">
-        <v>387771.4161995788</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>546084.8388388128</v>
-      </c>
-      <c r="B25" t="n">
-        <v>387809.1847319633</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>546084.8892062521</v>
-      </c>
-      <c r="B26" t="n">
-        <v>387786.6847883384</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>546054.9228597118</v>
-      </c>
-      <c r="B27" t="n">
-        <v>387771.6176693361</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>546084.7213147876</v>
-      </c>
-      <c r="B28" t="n">
-        <v>387861.6846004212</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>546024.9229348786</v>
-      </c>
-      <c r="B29" t="n">
-        <v>387771.5505127503</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>546084.8052605198</v>
-      </c>
-      <c r="B30" t="n">
-        <v>387824.1846943798</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>545994.9230100457</v>
-      </c>
-      <c r="B31" t="n">
-        <v>387771.4833561645</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>545964.8727177731</v>
-      </c>
-      <c r="B32" t="n">
-        <v>387793.9161432036</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>546017.2718513524</v>
-      </c>
-      <c r="B33" t="n">
-        <v>387839.0335544784</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>545994.7719077276</v>
-      </c>
-      <c r="B34" t="n">
-        <v>387838.983187039</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>545979.923047629</v>
-      </c>
-      <c r="B35" t="n">
-        <v>387771.4497778717</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>545964.8391394803</v>
-      </c>
-      <c r="B36" t="n">
-        <v>387808.9161056202</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>546009.9229724621</v>
-      </c>
-      <c r="B37" t="n">
-        <v>387771.5169344575</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>546024.8725674395</v>
-      </c>
-      <c r="B38" t="n">
-        <v>387794.0504563752</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>546039.9228972953</v>
-      </c>
-      <c r="B39" t="n">
-        <v>387771.5840910432</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>546054.7717573938</v>
-      </c>
-      <c r="B40" t="n">
-        <v>387839.1175002106</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>546017.2214839131</v>
-      </c>
-      <c r="B41" t="n">
-        <v>387861.5334981033</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>545987.2215590801</v>
-      </c>
-      <c r="B42" t="n">
-        <v>387861.4663415175</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>546069.7717198103</v>
-      </c>
-      <c r="B43" t="n">
-        <v>387839.1510785035</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>546024.8389891465</v>
-      </c>
-      <c r="B44" t="n">
-        <v>387809.0504187917</v>
+        <v>387840.6577904038</v>
       </c>
     </row>
   </sheetData>
